--- a/artfynd/A 27195-2019.xlsx
+++ b/artfynd/A 27195-2019.xlsx
@@ -1668,10 +1668,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80085024</v>
+        <v>80085448</v>
       </c>
       <c r="B10" t="n">
-        <v>90138</v>
+        <v>90674</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>366</v>
+        <v>5964</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>704263.209050305</v>
+        <v>704490.1700192796</v>
       </c>
       <c r="R10" t="n">
-        <v>6621096.794692665</v>
+        <v>6621367.819347588</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1757,11 +1757,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>På gammal asplåga.  Lövrik barrskog främst gammal gran, tall och gammal rötskadad asp.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1789,10 +1784,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80085448</v>
+        <v>80085070</v>
       </c>
       <c r="B11" t="n">
-        <v>90674</v>
+        <v>90665</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1805,21 +1800,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1832,10 +1827,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>704490.1700192796</v>
+        <v>704379.1093863305</v>
       </c>
       <c r="R11" t="n">
-        <v>6621367.819347588</v>
+        <v>6621313.154946283</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1878,6 +1873,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Lövrik barrskog främst gammal gran, tall och gammal rötskadad asp.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1905,10 +1905,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80085070</v>
+        <v>80085024</v>
       </c>
       <c r="B12" t="n">
-        <v>90665</v>
+        <v>90138</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1917,25 +1917,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4366</v>
+        <v>366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>704379.1093863305</v>
+        <v>704263.209050305</v>
       </c>
       <c r="R12" t="n">
-        <v>6621313.154946283</v>
+        <v>6621096.794692665</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Lövrik barrskog främst gammal gran, tall och gammal rötskadad asp.</t>
+          <t>På gammal asplåga.  Lövrik barrskog främst gammal gran, tall och gammal rötskadad asp.</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 27195-2019.xlsx
+++ b/artfynd/A 27195-2019.xlsx
@@ -1668,10 +1668,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80085448</v>
+        <v>80085024</v>
       </c>
       <c r="B10" t="n">
-        <v>90674</v>
+        <v>90138</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5964</v>
+        <v>366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>704490.1700192796</v>
+        <v>704263.209050305</v>
       </c>
       <c r="R10" t="n">
-        <v>6621367.819347588</v>
+        <v>6621096.794692665</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1757,6 +1757,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På gammal asplåga.  Lövrik barrskog främst gammal gran, tall och gammal rötskadad asp.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1784,10 +1789,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80085070</v>
+        <v>80085448</v>
       </c>
       <c r="B11" t="n">
-        <v>90665</v>
+        <v>90674</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1800,21 +1805,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1827,10 +1832,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>704379.1093863305</v>
+        <v>704490.1700192796</v>
       </c>
       <c r="R11" t="n">
-        <v>6621313.154946283</v>
+        <v>6621367.819347588</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1873,11 +1878,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Lövrik barrskog främst gammal gran, tall och gammal rötskadad asp.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1905,10 +1905,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80085024</v>
+        <v>80085070</v>
       </c>
       <c r="B12" t="n">
-        <v>90138</v>
+        <v>90665</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1917,25 +1917,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>366</v>
+        <v>4366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>704263.209050305</v>
+        <v>704379.1093863305</v>
       </c>
       <c r="R12" t="n">
-        <v>6621096.794692665</v>
+        <v>6621313.154946283</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>På gammal asplåga.  Lövrik barrskog främst gammal gran, tall och gammal rötskadad asp.</t>
+          <t>Lövrik barrskog främst gammal gran, tall och gammal rötskadad asp.</t>
         </is>
       </c>
       <c r="AD12" t="b">
